--- a/Plots and Tables/Length Bin Densities/308_length_bin.xlsx
+++ b/Plots and Tables/Length Bin Densities/308_length_bin.xlsx
@@ -17,10 +17,7 @@
     <t>YEAR</t>
   </si>
   <si>
-    <t>&lt;100 mm</t>
-  </si>
-  <si>
-    <t>100-200 mm</t>
+    <t>&lt;200 mm</t>
   </si>
   <si>
     <t>200-300 mm</t>
@@ -32,7 +29,10 @@
     <t>400-500 mm</t>
   </si>
   <si>
-    <t>&gt;500 mm</t>
+    <t>500-600 mm</t>
+  </si>
+  <si>
+    <t>&gt;600 mm</t>
   </si>
   <si>
     <t>NA</t>
@@ -117,22 +117,22 @@
         <v>2011.0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2920175955985933</v>
+        <v>2.298685006714255</v>
       </c>
       <c r="C2" t="n">
-        <v>2.0066674111156613</v>
+        <v>1.6693262978693573</v>
       </c>
       <c r="D2" t="n">
-        <v>1.6693262978693573</v>
+        <v>2.20768740030168</v>
       </c>
       <c r="E2" t="n">
-        <v>2.20768740030168</v>
+        <v>2.3119814405537635</v>
       </c>
       <c r="F2" t="n">
-        <v>2.3119814405537635</v>
+        <v>0.6189125659909483</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6725128187379253</v>
+        <v>0.05360025274697696</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
@@ -143,22 +143,22 @@
         <v>2012.0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3834042759534428</v>
+        <v>0.9127311630194653</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5293268870660226</v>
+        <v>0.7599182298788937</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7599182298788937</v>
+        <v>1.2040544750634012</v>
       </c>
       <c r="E3" t="n">
-        <v>1.2040544750634012</v>
+        <v>1.595838460768662</v>
       </c>
       <c r="F3" t="n">
-        <v>1.595838460768662</v>
+        <v>0.27901479320251027</v>
       </c>
       <c r="G3" t="n">
-        <v>0.27901479320251027</v>
+        <v>0.0</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -169,22 +169,22 @@
         <v>2013.0</v>
       </c>
       <c r="B4" t="n">
-        <v>0.48078298521373053</v>
+        <v>1.952745297059139</v>
       </c>
       <c r="C4" t="n">
-        <v>1.4719623118454086</v>
+        <v>1.5939145561228476</v>
       </c>
       <c r="D4" t="n">
-        <v>1.5939145561228476</v>
+        <v>2.1424432376585663</v>
       </c>
       <c r="E4" t="n">
-        <v>2.1424432376585663</v>
+        <v>2.3290455948646924</v>
       </c>
       <c r="F4" t="n">
-        <v>2.3290455948646924</v>
+        <v>0.5262769590856181</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5262769590856181</v>
+        <v>0.0</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
@@ -195,22 +195,22 @@
         <v>2014.0</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4889136530282889</v>
+        <v>1.1614946194131563</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6725809663848675</v>
+        <v>0.9798968413606672</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9798968413606672</v>
+        <v>2.350263455309743</v>
       </c>
       <c r="E5" t="n">
-        <v>2.350263455309743</v>
+        <v>2.0669658480963187</v>
       </c>
       <c r="F5" t="n">
-        <v>2.0669658480963187</v>
+        <v>0.3670827736306882</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3670827736306882</v>
+        <v>0.0</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
@@ -221,22 +221,22 @@
         <v>2015.0</v>
       </c>
       <c r="B6" t="n">
-        <v>0.11307040804966789</v>
+        <v>0.5369085252082085</v>
       </c>
       <c r="C6" t="n">
-        <v>0.42383811715854064</v>
+        <v>0.5367277518787488</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5367277518787488</v>
+        <v>1.2494655740982175</v>
       </c>
       <c r="E6" t="n">
-        <v>1.2494655740982175</v>
+        <v>1.6007754252260813</v>
       </c>
       <c r="F6" t="n">
-        <v>1.6007754252260813</v>
+        <v>0.46091907029611684</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5180703890145573</v>
+        <v>0.05715131871844038</v>
       </c>
       <c r="H6" t="n">
         <v>0.0</v>
@@ -247,22 +247,22 @@
         <v>2016.0</v>
       </c>
       <c r="B7" t="n">
-        <v>0.18959860247257915</v>
+        <v>1.0529061770613815</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8633075745888024</v>
+        <v>1.3834302725922585</v>
       </c>
       <c r="D7" t="n">
-        <v>1.3834302725922585</v>
+        <v>1.9726108802562707</v>
       </c>
       <c r="E7" t="n">
-        <v>1.9726108802562707</v>
+        <v>1.33044891185852</v>
       </c>
       <c r="F7" t="n">
-        <v>1.33044891185852</v>
+        <v>0.4238502890595027</v>
       </c>
       <c r="G7" t="n">
-        <v>0.450115385686878</v>
+        <v>0.02626509662737528</v>
       </c>
       <c r="H7" t="n">
         <v>0.0</v>
@@ -273,22 +273,22 @@
         <v>2017.0</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1799921867993426</v>
+        <v>1.202162794602207</v>
       </c>
       <c r="C8" t="n">
-        <v>1.0221706078028645</v>
+        <v>1.187985060086585</v>
       </c>
       <c r="D8" t="n">
-        <v>1.187985060086585</v>
+        <v>2.1705605120445144</v>
       </c>
       <c r="E8" t="n">
-        <v>2.1705605120445144</v>
+        <v>2.516641947154019</v>
       </c>
       <c r="F8" t="n">
-        <v>2.516641947154019</v>
+        <v>0.6251125584494359</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6515600515811679</v>
+        <v>0.026447493131732055</v>
       </c>
       <c r="H8" t="n">
         <v>0.0</v>
@@ -299,22 +299,22 @@
         <v>2018.0</v>
       </c>
       <c r="B9" t="n">
-        <v>0.15807360626654568</v>
+        <v>0.6864503719863541</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5283767657198084</v>
+        <v>0.7458483096038037</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7458483096038037</v>
+        <v>1.2322702783688593</v>
       </c>
       <c r="E9" t="n">
-        <v>1.2322702783688593</v>
+        <v>1.641821900719351</v>
       </c>
       <c r="F9" t="n">
-        <v>1.641821900719351</v>
+        <v>0.3493168825165554</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3752835121368014</v>
+        <v>0.025966629620246016</v>
       </c>
       <c r="H9" t="n">
         <v>0.0</v>
@@ -325,22 +325,22 @@
         <v>2019.0</v>
       </c>
       <c r="B10" t="n">
-        <v>0.31673596905016366</v>
+        <v>0.9309255268872064</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6141895578370428</v>
+        <v>0.8421626291265406</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8421626291265406</v>
+        <v>1.8255986797154957</v>
       </c>
       <c r="E10" t="n">
-        <v>1.8255986797154957</v>
+        <v>2.4502472372845636</v>
       </c>
       <c r="F10" t="n">
-        <v>2.4502472372845636</v>
+        <v>0.6615377753623948</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6878028719897701</v>
+        <v>0.02626509662737528</v>
       </c>
       <c r="H10" t="n">
         <v>0.0</v>
